--- a/output/Detail Sign Off Report.xlsx
+++ b/output/Detail Sign Off Report.xlsx
@@ -6,35 +6,35 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Employees" r:id="rId3" sheetId="1"/>
+    <sheet name="SignOff" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
-  <si>
-    <t>Store Number</t>
-  </si>
-  <si>
-    <t>Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
   </si>
   <si>
     <t>Business Day</t>
   </si>
   <si>
+    <t>In Type</t>
+  </si>
+  <si>
+    <t>Out Type</t>
+  </si>
+  <si>
     <t>Clock In</t>
   </si>
   <si>
     <t>Clock Out</t>
   </si>
   <si>
-    <t>In Type</t>
-  </si>
-  <si>
-    <t>Out Type</t>
-  </si>
-  <si>
     <t>Job ID</t>
   </si>
   <si>
@@ -47,49 +47,73 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>8:04AM</t>
-  </si>
-  <si>
-    <t>11:21AM</t>
+    <t>Clock-in</t>
+  </si>
+  <si>
+    <t>Clock-out</t>
+  </si>
+  <si>
+    <t>11:56AM</t>
+  </si>
+  <si>
+    <t>1:33PM</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>KASSIE FIRAEHIWOT L</t>
   </si>
   <si>
-    <t>7:00AM</t>
-  </si>
-  <si>
-    <t>10:50AM</t>
+    <t>11:22AM</t>
+  </si>
+  <si>
+    <t>1:37PM</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>LEWIS TINA</t>
   </si>
   <si>
-    <t>9:02AM</t>
+    <t>9:35AM</t>
+  </si>
+  <si>
+    <t>12:49PM</t>
   </si>
   <si>
     <t>RAMIREZ EDWIN</t>
   </si>
   <si>
-    <t>9:33AM</t>
+    <t>10:04AM</t>
+  </si>
+  <si>
+    <t>1:35PM</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>VIDAL LANDEROS VALENTIN</t>
   </si>
   <si>
-    <t>10:07AM</t>
-  </si>
-  <si>
-    <t>12:17PM</t>
+    <t>12:51PM</t>
+  </si>
+  <si>
+    <t>3:15PM</t>
   </si>
   <si>
     <t>SHRESTHA TIRTHA</t>
   </si>
   <si>
-    <t>3:57PM</t>
-  </si>
-  <si>
-    <t>8:45PM</t>
+    <t>9:20PM</t>
+  </si>
+  <si>
+    <t>2:11AM</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
   <si>
     <t>ROBLES ENEDELIA</t>
@@ -104,19 +128,19 @@
     <t>ZAMARRON VICTOR</t>
   </si>
   <si>
-    <t>7:17AM</t>
-  </si>
-  <si>
-    <t>11:18AM</t>
+    <t>11:48AM</t>
+  </si>
+  <si>
+    <t>1:58PM</t>
   </si>
   <si>
     <t>TURRADO VICTOR</t>
   </si>
   <si>
-    <t>3:56PM</t>
-  </si>
-  <si>
-    <t>7:11PM</t>
+    <t>7:42PM</t>
+  </si>
+  <si>
+    <t>10:44PM</t>
   </si>
   <si>
     <t>GALINDO GEOVANI</t>
@@ -137,58 +161,61 @@
     <t>12:33PM</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>GUTIERREZ AMANDA</t>
   </si>
   <si>
-    <t>8:56AM</t>
-  </si>
-  <si>
-    <t>12:07PM</t>
+    <t>12:39PM</t>
+  </si>
+  <si>
+    <t>5:02PM</t>
   </si>
   <si>
     <t>GONZALEZ TRISHA</t>
   </si>
   <si>
-    <t>9:55PM</t>
-  </si>
-  <si>
-    <t>11:32PM</t>
+    <t>12:06AM</t>
+  </si>
+  <si>
+    <t>6:02AM</t>
   </si>
   <si>
     <t>VALDEZ MARINA</t>
   </si>
   <si>
-    <t>9:00PM</t>
-  </si>
-  <si>
-    <t>11:12PM</t>
+    <t>11:44PM</t>
+  </si>
+  <si>
+    <t>2:33AM</t>
   </si>
   <si>
     <t>BURGOZ ARIEL</t>
   </si>
   <si>
-    <t>4:01PM</t>
-  </si>
-  <si>
-    <t>8:06PM</t>
+    <t>8:38PM</t>
+  </si>
+  <si>
+    <t>10:39PM</t>
   </si>
   <si>
     <t>SALAZAR BRANDON</t>
   </si>
   <si>
+    <t>1:20AM</t>
+  </si>
+  <si>
+    <t>6:08AM</t>
+  </si>
+  <si>
+    <t>AMAYA FAUSTO</t>
+  </si>
+  <si>
     <t>11:18PM</t>
   </si>
   <si>
-    <t>12:47AM</t>
-  </si>
-  <si>
-    <t>AMAYA FAUSTO</t>
-  </si>
-  <si>
-    <t>8:01PM</t>
-  </si>
-  <si>
-    <t>10:32PM</t>
+    <t>12:03AM</t>
   </si>
   <si>
     <t>ESTRADA JOSELYN</t>
@@ -290,349 +317,457 @@
       <c r="E2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
+      <c r="F2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>33</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>49</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/output/Detail Sign Off Report.xlsx
+++ b/output/Detail Sign Off Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="57">
   <si>
     <t>Store</t>
   </si>
@@ -47,118 +47,97 @@
     <t>Friday</t>
   </si>
   <si>
+    <t>Break Clock-in</t>
+  </si>
+  <si>
+    <t>Break Clock-out</t>
+  </si>
+  <si>
+    <t>12/19/25   8:04AM</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>KASSIE FIRAEHIWOT L</t>
+  </si>
+  <si>
+    <t>12/19/25   7:00AM</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>12/20/25   5:55AM</t>
+  </si>
+  <si>
+    <t>LEWIS TINA</t>
+  </si>
+  <si>
+    <t>12/20/25   5:53AM</t>
+  </si>
+  <si>
+    <t>RAMIREZ EDWIN</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>12/20/25   6:04AM</t>
+  </si>
+  <si>
+    <t>VIDAL LANDEROS VALENTIN</t>
+  </si>
+  <si>
+    <t>12/19/25  10:07AM</t>
+  </si>
+  <si>
+    <t>SHRESTHA TIRTHA</t>
+  </si>
+  <si>
+    <t>12/19/25   3:57PM</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>ROBLES ENEDELIA</t>
+  </si>
+  <si>
     <t>Clock-in</t>
   </si>
   <si>
     <t>Clock-out</t>
   </si>
   <si>
-    <t>11:56AM</t>
-  </si>
-  <si>
-    <t>1:33PM</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>KASSIE FIRAEHIWOT L</t>
-  </si>
-  <si>
-    <t>11:22AM</t>
-  </si>
-  <si>
-    <t>1:37PM</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>LEWIS TINA</t>
-  </si>
-  <si>
-    <t>9:35AM</t>
-  </si>
-  <si>
-    <t>12:49PM</t>
-  </si>
-  <si>
-    <t>RAMIREZ EDWIN</t>
-  </si>
-  <si>
-    <t>10:04AM</t>
-  </si>
-  <si>
-    <t>1:35PM</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>VIDAL LANDEROS VALENTIN</t>
-  </si>
-  <si>
-    <t>12:51PM</t>
-  </si>
-  <si>
-    <t>3:15PM</t>
-  </si>
-  <si>
-    <t>SHRESTHA TIRTHA</t>
-  </si>
-  <si>
-    <t>9:20PM</t>
-  </si>
-  <si>
-    <t>2:11AM</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>ROBLES ENEDELIA</t>
-  </si>
-  <si>
-    <t>5:00PM</t>
-  </si>
-  <si>
-    <t>9:03PM</t>
+    <t>12/19/25   5:00PM</t>
   </si>
   <si>
     <t>ZAMARRON VICTOR</t>
   </si>
   <si>
-    <t>11:48AM</t>
-  </si>
-  <si>
-    <t>1:58PM</t>
+    <t>12/19/25   7:17AM</t>
+  </si>
+  <si>
+    <t>12/20/25   6:35AM</t>
   </si>
   <si>
     <t>TURRADO VICTOR</t>
   </si>
   <si>
-    <t>7:42PM</t>
-  </si>
-  <si>
-    <t>10:44PM</t>
+    <t>12/19/25   3:56PM</t>
   </si>
   <si>
     <t>GALINDO GEOVANI</t>
   </si>
   <si>
-    <t>6:55PM</t>
-  </si>
-  <si>
-    <t>11:49PM</t>
+    <t>12/19/25   6:55PM</t>
   </si>
   <si>
     <t>RAMOS LOPEZ DIANA</t>
   </si>
   <si>
-    <t>9:03AM</t>
-  </si>
-  <si>
-    <t>12:33PM</t>
+    <t>12/19/25   9:03AM</t>
   </si>
   <si>
     <t>3</t>
@@ -167,64 +146,43 @@
     <t>GUTIERREZ AMANDA</t>
   </si>
   <si>
-    <t>12:39PM</t>
-  </si>
-  <si>
-    <t>5:02PM</t>
+    <t>12/19/25   8:56AM</t>
   </si>
   <si>
     <t>GONZALEZ TRISHA</t>
   </si>
   <si>
-    <t>12:06AM</t>
-  </si>
-  <si>
-    <t>6:02AM</t>
+    <t>12/19/25   9:55PM</t>
   </si>
   <si>
     <t>VALDEZ MARINA</t>
   </si>
   <si>
-    <t>11:44PM</t>
-  </si>
-  <si>
-    <t>2:33AM</t>
+    <t>12/19/25   9:00PM</t>
   </si>
   <si>
     <t>BURGOZ ARIEL</t>
   </si>
   <si>
-    <t>8:38PM</t>
-  </si>
-  <si>
-    <t>10:39PM</t>
+    <t>12/19/25   4:01PM</t>
   </si>
   <si>
     <t>SALAZAR BRANDON</t>
   </si>
   <si>
-    <t>1:20AM</t>
-  </si>
-  <si>
-    <t>6:08AM</t>
+    <t>12/19/25  11:18PM</t>
   </si>
   <si>
     <t>AMAYA FAUSTO</t>
   </si>
   <si>
-    <t>11:18PM</t>
-  </si>
-  <si>
-    <t>12:03AM</t>
+    <t>12/19/25   8:01PM</t>
   </si>
   <si>
     <t>ESTRADA JOSELYN</t>
   </si>
   <si>
-    <t>12:00PM</t>
-  </si>
-  <si>
-    <t>4:33PM</t>
+    <t>12/19/25  12:00PM</t>
   </si>
 </sst>
 </file>
@@ -269,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -321,10 +279,10 @@
         <v>13</v>
       </c>
       <c r="G2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -332,25 +290,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s" s="0">
+      <c r="G3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -358,7 +316,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>10</v>
@@ -370,13 +328,13 @@
         <v>12</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -384,7 +342,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>10</v>
@@ -396,13 +354,13 @@
         <v>12</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -410,7 +368,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>10</v>
@@ -422,13 +380,13 @@
         <v>12</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -436,7 +394,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>10</v>
@@ -448,13 +406,13 @@
         <v>12</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>10</v>
@@ -474,13 +432,13 @@
         <v>12</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -488,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>10</v>
@@ -500,13 +458,13 @@
         <v>12</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +472,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>10</v>
@@ -526,13 +484,13 @@
         <v>12</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -540,25 +498,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -566,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>10</v>
@@ -578,13 +536,13 @@
         <v>12</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -592,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>10</v>
@@ -604,13 +562,13 @@
         <v>12</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>10</v>
@@ -630,13 +588,13 @@
         <v>12</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -644,25 +602,25 @@
         <v>8</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -670,25 +628,25 @@
         <v>8</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -696,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>10</v>
@@ -708,13 +666,13 @@
         <v>12</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -722,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>10</v>
@@ -734,13 +692,13 @@
         <v>12</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -748,7 +706,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>10</v>
@@ -760,13 +718,117 @@
         <v>12</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
